--- a/sputnik/personal/ee/160ee.xlsx
+++ b/sputnik/personal/ee/160ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,16 +34,34 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,14 +79,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -119,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -132,22 +133,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -208,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,10 +232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,7 +266,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -451,431 +441,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F18:F19"/>
+      <selection activeCell="A8" sqref="A8:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
-        <v>43225</v>
+        <v>43583</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>8620</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>9430</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>4350</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>4693</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
-        <v>43274</v>
+        <v>43598</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>8800</v>
+        <v>9550</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D11" si="0">C4-C2</f>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E4" s="6">
-        <v>4.29</v>
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F11" si="1">D4*E4</f>
-        <v>772.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+        <v>548.40000000000009</v>
+      </c>
+      <c r="G4" s="8">
+        <f>SUM(F4,F5)</f>
+        <v>636.83000000000015</v>
+      </c>
+      <c r="H4" s="8">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>4500</v>
+        <v>4730</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="E5" s="6">
-        <v>2.17</v>
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>325.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88.43</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
-        <v>43379</v>
+        <v>43703</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>8980</v>
+        <v>9700</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E6" s="6">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="1"/>
-        <v>810</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>673.5</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(F6,F7)</f>
+        <v>795</v>
+      </c>
+      <c r="H6" s="8">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>4580</v>
+        <v>4780</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E7" s="6">
-        <v>2.35</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
-        <v>43379</v>
+        <v>43732</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>9280</v>
+        <v>9880</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="E8" s="6">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="1"/>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>808.2</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>856.80000000000007</v>
+      </c>
+      <c r="H8" s="8">
+        <v>856.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>4643</v>
+        <v>4800</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E9" s="6">
-        <v>2.35</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="1"/>
-        <v>148.05000000000001</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48.6</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
-        <v>43583</v>
+        <v>43860</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>9430</v>
+        <v>10050</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E10" s="6">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>685.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <f>D10*E10</f>
+        <v>763.30000000000007</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>836.2</v>
+      </c>
+      <c r="H10" s="8">
+        <v>836.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>4693</v>
+        <v>4830</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E11" s="6">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>119.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43598</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9550</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D19" si="2">C12-C10</f>
-        <v>120</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" ref="F12:F17" si="3">D12*E12</f>
-        <v>548.40000000000009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4730</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2.39</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="3"/>
-        <v>88.43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43703</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>9700</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="3"/>
-        <v>673.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4780</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="3"/>
-        <v>121.50000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>43732</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>9880</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="E16" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="3"/>
-        <v>808.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4800</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="3"/>
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>43860</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>10050</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="E18" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="6">
-        <f>D18*E18</f>
-        <v>763.30000000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4830</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="6">
-        <f>D19*E19</f>
+        <f>D11*E11</f>
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(G2:G11)</f>
+        <v>3124.83</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(H2:H11)</f>
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <f>SUM(H12,-G12)</f>
+        <v>0.17000000000007276</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -885,12 +766,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -899,12 +780,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/160ee.xlsx
+++ b/sputnik/personal/ee/160ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -57,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,6 +267,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -441,17 +443,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E11"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
@@ -465,7 +467,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -491,7 +493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43583</v>
       </c>
@@ -507,7 +509,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -521,7 +523,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43598</v>
       </c>
@@ -550,7 +552,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -572,7 +574,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43703</v>
       </c>
@@ -601,7 +603,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -623,7 +625,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43732</v>
       </c>
@@ -652,7 +654,7 @@
         <v>856.8</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -674,7 +676,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43860</v>
       </c>
@@ -703,7 +705,7 @@
         <v>836.2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -725,36 +727,138 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="2" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43924</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="2">C12-C10</f>
+        <v>150</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="6">
+        <f>D12*E12</f>
+        <v>673.5</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>795</v>
+      </c>
+      <c r="H12" s="8">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4880</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <f>D13*E13</f>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>43943</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10550</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="3">C14-C12</f>
+        <v>350</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="6">
+        <f>D14*E14</f>
+        <v>1571.5</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(F14,F15)</f>
+        <v>2057.5</v>
+      </c>
+      <c r="H14" s="8">
+        <v>2057.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5080</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="6">
+        <f>D15*E15</f>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="8">
-        <f>SUM(G2:G11)</f>
-        <v>3124.83</v>
-      </c>
-      <c r="H12" s="8">
-        <f>SUM(H2:H11)</f>
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="G16" s="8">
+        <f>SUM(G2:G15)</f>
+        <v>5977.33</v>
+      </c>
+      <c r="H16" s="8">
+        <f>SUM(H2:H15)</f>
+        <v>5977.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
-        <f>SUM(H12,-G12)</f>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8">
+        <f>SUM(H16,-G16)</f>
         <v>0.17000000000007276</v>
       </c>
     </row>
@@ -766,12 +870,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -780,12 +884,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/160ee.xlsx
+++ b/sputnik/personal/ee/160ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
+        <f t="shared" ref="F10:F15" si="2">D10*E10</f>
         <v>763.30000000000007</v>
       </c>
       <c r="G10" s="8">
@@ -721,7 +721,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>72.900000000000006</v>
       </c>
       <c r="G11" s="8"/>
@@ -738,14 +738,14 @@
         <v>10200</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="2">C12-C10</f>
+        <f t="shared" ref="D12:D13" si="3">C12-C10</f>
         <v>150</v>
       </c>
       <c r="E12" s="6">
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f>D12*E12</f>
+        <f t="shared" si="2"/>
         <v>673.5</v>
       </c>
       <c r="G12" s="8">
@@ -765,14 +765,14 @@
         <v>4880</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E13" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f>D13*E13</f>
+        <f t="shared" si="2"/>
         <v>121.50000000000001</v>
       </c>
       <c r="G13" s="8"/>
@@ -789,14 +789,14 @@
         <v>10550</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="3">C14-C12</f>
+        <f t="shared" ref="D14:D15" si="4">C14-C12</f>
         <v>350</v>
       </c>
       <c r="E14" s="6">
         <v>4.49</v>
       </c>
       <c r="F14" s="6">
-        <f>D14*E14</f>
+        <f t="shared" si="2"/>
         <v>1571.5</v>
       </c>
       <c r="G14" s="8">
@@ -816,49 +816,100 @@
         <v>5080</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="E15" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="6">
-        <f>D15*E15</f>
+        <f t="shared" si="2"/>
         <v>486.00000000000006</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="4">
+        <v>43964</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>11350</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="5">C16-C14</f>
+        <v>800</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
+        <v>3592</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUM(F16,F17)</f>
+        <v>4807</v>
+      </c>
+      <c r="H16" s="8">
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5580</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="6"/>
+        <v>1215</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="8">
-        <f>SUM(G2:G15)</f>
-        <v>5977.33</v>
-      </c>
-      <c r="H16" s="8">
-        <f>SUM(H2:H15)</f>
-        <v>5977.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="G18" s="8">
+        <f>SUM(G2:G17)</f>
+        <v>10784.33</v>
+      </c>
+      <c r="H18" s="8">
+        <f>SUM(H2:H17)</f>
+        <v>10784.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
+        <f>SUM(H18,-G18)</f>
         <v>0.17000000000007276</v>
       </c>
     </row>

--- a/sputnik/personal/ee/160ee.xlsx
+++ b/sputnik/personal/ee/160ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -881,36 +881,87 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="4">
+        <v>43990</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>12150</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="7">C18-C16</f>
+        <v>800</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="8">D18*E18</f>
+        <v>3592</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(F18,F19)</f>
+        <v>4612.6000000000004</v>
+      </c>
+      <c r="H18" s="8">
+        <v>4661.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="8"/>
+        <v>1020.6</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="8">
-        <f>SUM(G2:G17)</f>
-        <v>10784.33</v>
-      </c>
-      <c r="H18" s="8">
-        <f>SUM(H2:H17)</f>
-        <v>10784.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="G20" s="8">
+        <f>SUM(G2:G19)</f>
+        <v>15396.93</v>
+      </c>
+      <c r="H20" s="8">
+        <f>SUM(H2:H19)</f>
+        <v>15445.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8">
-        <f>SUM(H18,-G18)</f>
-        <v>0.17000000000007276</v>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
+        <f>SUM(H20,-G20)</f>
+        <v>48.770000000000437</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/160ee.xlsx
+++ b/sputnik/personal/ee/160ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -932,35 +932,86 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="4">
+        <v>44014</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>12610</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="9">C20-C18</f>
+        <v>460</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="10">D20*E20</f>
+        <v>2065.4</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(F20,F21)</f>
+        <v>2648.6000000000004</v>
+      </c>
+      <c r="H20" s="8">
+        <v>2648.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6240</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="9"/>
+        <v>240</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="10"/>
+        <v>583.20000000000005</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="8">
-        <f>SUM(G2:G19)</f>
-        <v>15396.93</v>
-      </c>
-      <c r="H20" s="8">
-        <f>SUM(H2:H19)</f>
-        <v>15445.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="G22" s="8">
+        <f>SUM(G2:G21)</f>
+        <v>18045.53</v>
+      </c>
+      <c r="H22" s="8">
+        <f>SUM(H2:H21)</f>
+        <v>18094.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
+        <f>SUM(H22,-G22)</f>
         <v>48.770000000000437</v>
       </c>
     </row>

--- a/sputnik/personal/ee/160ee.xlsx
+++ b/sputnik/personal/ee/160ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -495,13 +495,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43583</v>
+        <v>43990</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>9430</v>
+        <v>12150</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>4693</v>
+        <v>6000</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
@@ -525,31 +525,31 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43598</v>
+        <v>44014</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>9550</v>
+        <v>12610</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="0">C4-C2</f>
-        <v>120</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>460</v>
       </c>
       <c r="E4" s="6">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>548.40000000000009</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>2065.4</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>636.83000000000015</v>
+        <v>2648.6000000000004</v>
       </c>
       <c r="H4" s="8">
-        <v>637</v>
+        <v>2648.6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -558,41 +558,41 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>4730</v>
+        <v>6240</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="E5" s="6">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>88.43</v>
+        <v>583.20000000000005</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43703</v>
+        <v>44183</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>9700</v>
+        <v>12760</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
         <v>150</v>
       </c>
       <c r="E6" s="6">
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
         <v>673.5</v>
       </c>
       <c r="G6" s="8">
@@ -609,410 +609,53 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>4780</v>
+        <v>6290</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E7" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>121.50000000000001</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43732</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>9880</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>808.2</v>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G8" s="8">
-        <f>SUM(F8,F9)</f>
-        <v>856.80000000000007</v>
+        <f>SUM(G2:G5)</f>
+        <v>2648.6000000000004</v>
       </c>
       <c r="H8" s="8">
-        <v>856.8</v>
+        <f>SUM(H2:H5)</f>
+        <v>2648.6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4800</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>48.6</v>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43860</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10050</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" ref="F10:F15" si="2">D10*E10</f>
-        <v>763.30000000000007</v>
-      </c>
-      <c r="G10" s="8">
-        <f>SUM(F10,F11)</f>
-        <v>836.2</v>
-      </c>
-      <c r="H10" s="8">
-        <v>836.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4830</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="2"/>
-        <v>72.900000000000006</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43924</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10200</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="3">C12-C10</f>
-        <v>150</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="2"/>
-        <v>673.5</v>
-      </c>
-      <c r="G12" s="8">
-        <f>SUM(F12,F13)</f>
-        <v>795</v>
-      </c>
-      <c r="H12" s="8">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4880</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="2"/>
-        <v>121.50000000000001</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43943</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>10550</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="4">C14-C12</f>
-        <v>350</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="2"/>
-        <v>1571.5</v>
-      </c>
-      <c r="G14" s="8">
-        <f>SUM(F14,F15)</f>
-        <v>2057.5</v>
-      </c>
-      <c r="H14" s="8">
-        <v>2057.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5080</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="2"/>
-        <v>486.00000000000006</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43964</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>11350</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="5">C16-C14</f>
-        <v>800</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
-        <v>3592</v>
-      </c>
-      <c r="G16" s="8">
-        <f>SUM(F16,F17)</f>
-        <v>4807</v>
-      </c>
-      <c r="H16" s="8">
-        <v>4807</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5580</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="5"/>
-        <v>500</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="6"/>
-        <v>1215</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43990</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>12150</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="7">C18-C16</f>
-        <v>800</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" ref="F18:F19" si="8">D18*E18</f>
-        <v>3592</v>
-      </c>
-      <c r="G18" s="8">
-        <f>SUM(F18,F19)</f>
-        <v>4612.6000000000004</v>
-      </c>
-      <c r="H18" s="8">
-        <v>4661.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="7"/>
-        <v>420</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="8"/>
-        <v>1020.6</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>44014</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>12610</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="9">C20-C18</f>
-        <v>460</v>
-      </c>
-      <c r="E20" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" ref="F20:F21" si="10">D20*E20</f>
-        <v>2065.4</v>
-      </c>
-      <c r="G20" s="8">
-        <f>SUM(F20,F21)</f>
-        <v>2648.6000000000004</v>
-      </c>
-      <c r="H20" s="8">
-        <v>2648.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>6240</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="9"/>
-        <v>240</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="10"/>
-        <v>583.20000000000005</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="8">
-        <f>SUM(G2:G21)</f>
-        <v>18045.53</v>
-      </c>
-      <c r="H22" s="8">
-        <f>SUM(H2:H21)</f>
-        <v>18094.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8">
-        <f>SUM(H22,-G22)</f>
-        <v>48.770000000000437</v>
+      <c r="H9" s="8">
+        <f>SUM(H8,-G8)</f>
+        <v>-4.5474735088646412E-13</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/160ee.xlsx
+++ b/sputnik/personal/ee/160ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -626,35 +626,86 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="2" t="s">
+      <c r="A8" s="4">
+        <v>44208</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>12910</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
+        <v>150</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>673.5</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>795</v>
+      </c>
+      <c r="H8" s="8">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6340</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="5"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G10" s="8">
         <f>SUM(G2:G5)</f>
         <v>2648.6000000000004</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H10" s="8">
         <f>SUM(H2:H5)</f>
         <v>2648.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8">
-        <f>SUM(H8,-G8)</f>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
+        <f>SUM(H10,-G10)</f>
         <v>-4.5474735088646412E-13</v>
       </c>
     </row>

--- a/sputnik/personal/ee/160ee.xlsx
+++ b/sputnik/personal/ee/160ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -538,15 +538,15 @@
         <v>460</v>
       </c>
       <c r="E4" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>2065.4</v>
+        <v>2166.6</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>2648.6000000000004</v>
+        <v>2778.6</v>
       </c>
       <c r="H4" s="8">
         <v>2648.6</v>
@@ -565,11 +565,11 @@
         <v>240</v>
       </c>
       <c r="E5" s="6">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>583.20000000000005</v>
+        <v>612</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -589,15 +589,15 @@
         <v>150</v>
       </c>
       <c r="E6" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ref="F6:F7" si="3">D6*E6</f>
-        <v>673.5</v>
+        <v>706.5</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>795</v>
+        <v>834</v>
       </c>
       <c r="H6" s="8">
         <v>795</v>
@@ -616,11 +616,11 @@
         <v>50</v>
       </c>
       <c r="E7" s="6">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="3"/>
-        <v>121.50000000000001</v>
+        <v>127.49999999999999</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -640,15 +640,15 @@
         <v>150</v>
       </c>
       <c r="E8" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" ref="F8:F9" si="5">D8*E8</f>
-        <v>673.5</v>
+        <v>706.5</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>795</v>
+        <v>834</v>
       </c>
       <c r="H8" s="8">
         <v>795</v>
@@ -667,52 +667,256 @@
         <v>50</v>
       </c>
       <c r="E9" s="6">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="5"/>
-        <v>121.50000000000001</v>
+        <v>127.49999999999999</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="4">
+        <v>44242</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>13410</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
+        <v>500</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>2355</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>2865</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6540</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="7"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44285</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>13560</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="8">C12-C10</f>
+        <v>150</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>706.5</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>834</v>
+      </c>
+      <c r="H12" s="8">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6590</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="9"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44307</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13560</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="10">C14-C12</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(F14,F15)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>249.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6590</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44307</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>14060</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="12">C16-C14</f>
+        <v>500</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>2355</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUM(F16,F17)</f>
+        <v>3120</v>
+      </c>
+      <c r="H16" s="8">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6890</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="13"/>
+        <v>765</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="8">
-        <f>SUM(G2:G5)</f>
-        <v>2648.6000000000004</v>
-      </c>
-      <c r="H10" s="8">
-        <f>SUM(H2:H5)</f>
-        <v>2648.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="G18" s="8">
+        <f>SUM(G2:G17)</f>
+        <v>11265.6</v>
+      </c>
+      <c r="H18" s="8">
+        <f>SUM(H2:H17)</f>
+        <v>11134.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <f>SUM(H10,-G10)</f>
-        <v>-4.5474735088646412E-13</v>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
+        <f>SUM(H18,-G18)</f>
+        <v>-131.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/160ee.xlsx
+++ b/sputnik/personal/ee/160ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -881,35 +881,86 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="4">
+        <v>44327</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>14560</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="14">C18-C16</f>
+        <v>500</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
+        <v>2355</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(F18,F19)</f>
+        <v>3120</v>
+      </c>
+      <c r="H18" s="8">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>7190</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="15"/>
+        <v>765</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="8">
-        <f>SUM(G2:G17)</f>
-        <v>11265.6</v>
-      </c>
-      <c r="H18" s="8">
-        <f>SUM(H2:H17)</f>
-        <v>11134.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="G20" s="8">
+        <f>SUM(G2:G19)</f>
+        <v>14385.6</v>
+      </c>
+      <c r="H20" s="8">
+        <f>SUM(H2:H19)</f>
+        <v>14254.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
+        <f>SUM(H20,-G20)</f>
         <v>-131.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/160ee.xlsx
+++ b/sputnik/personal/ee/160ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -447,7 +447,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
@@ -932,35 +932,86 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="4">
+        <v>44393</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>14710</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="16">C20-C18</f>
+        <v>150</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
+        <v>744</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(F20,F21)</f>
+        <v>878</v>
+      </c>
+      <c r="H20" s="8">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7240</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="17"/>
+        <v>134</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G22" s="8">
         <f>SUM(G2:G19)</f>
         <v>14385.6</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H22" s="8">
         <f>SUM(H2:H19)</f>
         <v>14254.1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
+        <f>SUM(H22,-G22)</f>
         <v>-131.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/160ee.xlsx
+++ b/sputnik/personal/ee/160ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -983,35 +983,86 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="4">
+        <v>44418</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>15160</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="18">C22-C20</f>
+        <v>450</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
+        <v>2232</v>
+      </c>
+      <c r="G22" s="8">
+        <f>SUM(F22,F23)</f>
+        <v>2768</v>
+      </c>
+      <c r="H22" s="8">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>7440</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="19"/>
+        <v>536</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="8">
-        <f>SUM(G2:G19)</f>
-        <v>14385.6</v>
-      </c>
-      <c r="H22" s="8">
-        <f>SUM(H2:H19)</f>
-        <v>14254.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="G24" s="8">
+        <f>SUM(G2:G23)</f>
+        <v>18031.599999999999</v>
+      </c>
+      <c r="H24" s="8">
+        <f>SUM(H2:H23)</f>
+        <v>17900.099999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8">
+        <f>SUM(H24,-G24)</f>
         <v>-131.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/160ee.xlsx
+++ b/sputnik/personal/ee/160ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1034,35 +1034,137 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="4">
+        <v>44460</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>15260</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="20">C24-C22</f>
+        <v>100</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:F25" si="21">D24*E24</f>
+        <v>496</v>
+      </c>
+      <c r="G24" s="8">
+        <f>SUM(F24,F25)</f>
+        <v>764</v>
+      </c>
+      <c r="H24" s="8">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>7540</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="21"/>
+        <v>268</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>44480</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15560</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="22">C26-C24</f>
+        <v>300</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" ref="F26:F27" si="23">D26*E26</f>
+        <v>1488</v>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(F26,F27)</f>
+        <v>1756</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7640</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="23"/>
+        <v>268</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="8">
-        <f>SUM(G2:G23)</f>
-        <v>18031.599999999999</v>
-      </c>
-      <c r="H24" s="8">
-        <f>SUM(H2:H23)</f>
-        <v>17900.099999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="G28" s="8">
+        <f>SUM(G2:G25)</f>
+        <v>18795.599999999999</v>
+      </c>
+      <c r="H28" s="8">
+        <f>SUM(H2:H25)</f>
+        <v>18664.099999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8">
-        <f>SUM(H24,-G24)</f>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8">
+        <f>SUM(H28,-G28)</f>
         <v>-131.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/160ee.xlsx
+++ b/sputnik/personal/ee/160ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +80,13 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -120,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -140,6 +147,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -447,10 +455,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -544,11 +552,11 @@
         <f t="shared" ref="F4:F5" si="1">D4*E4</f>
         <v>2166.6</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
         <v>2778.6</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="9">
         <v>2648.6</v>
       </c>
     </row>
@@ -571,8 +579,8 @@
         <f t="shared" si="1"/>
         <v>612</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -595,11 +603,11 @@
         <f t="shared" ref="F6:F7" si="3">D6*E6</f>
         <v>706.5</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
         <v>834</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <v>795</v>
       </c>
     </row>
@@ -622,8 +630,8 @@
         <f t="shared" si="3"/>
         <v>127.49999999999999</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -646,11 +654,11 @@
         <f t="shared" ref="F8:F9" si="5">D8*E8</f>
         <v>706.5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <f>SUM(F8,F9)</f>
         <v>834</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <v>795</v>
       </c>
     </row>
@@ -673,8 +681,8 @@
         <f t="shared" si="5"/>
         <v>127.49999999999999</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -697,11 +705,11 @@
         <f t="shared" ref="F10:F11" si="7">D10*E10</f>
         <v>2355</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <f>SUM(F10,F11)</f>
         <v>2865</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <v>2731</v>
       </c>
     </row>
@@ -724,8 +732,8 @@
         <f t="shared" si="7"/>
         <v>509.99999999999994</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -748,11 +756,11 @@
         <f t="shared" ref="F12:F13" si="9">D12*E12</f>
         <v>706.5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <f>SUM(F12,F13)</f>
         <v>834</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="9">
         <v>795</v>
       </c>
     </row>
@@ -775,8 +783,8 @@
         <f t="shared" si="9"/>
         <v>127.49999999999999</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -799,11 +807,11 @@
         <f t="shared" ref="F14:F15" si="11">D14*E14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <f>SUM(F14,F15)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="9">
         <v>249.5</v>
       </c>
     </row>
@@ -1136,35 +1144,137 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="2" t="s">
+      <c r="A28" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>16060</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D29" si="24">C28-C26</f>
+        <v>500</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" ref="F28:F29" si="25">D28*E28</f>
+        <v>2480</v>
+      </c>
+      <c r="G28" s="8">
+        <f>SUM(F28,F29)</f>
+        <v>3284</v>
+      </c>
+      <c r="H28" s="8">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>7940</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="24"/>
+        <v>300</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="25"/>
+        <v>804</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>44543</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>16360</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:D31" si="26">C30-C28</f>
+        <v>300</v>
+      </c>
+      <c r="E30" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" ref="F30:F31" si="27">D30*E30</f>
+        <v>1488</v>
+      </c>
+      <c r="G30" s="8">
+        <f>SUM(F30,F31)</f>
+        <v>1756</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>8040</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="27"/>
+        <v>268</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="8">
-        <f>SUM(G2:G25)</f>
-        <v>18795.599999999999</v>
-      </c>
-      <c r="H28" s="8">
-        <f>SUM(H2:H25)</f>
-        <v>18664.099999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
+      <c r="G32" s="8">
+        <f>SUM(G2:G31)</f>
+        <v>25591.599999999999</v>
+      </c>
+      <c r="H32" s="8">
+        <f>SUM(H2:H31)</f>
+        <v>25460.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8">
-        <f>SUM(H28,-G28)</f>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8">
+        <f>SUM(H32,-G32)</f>
         <v>-131.5</v>
       </c>
     </row>
